--- a/AAAGameData/Languages/English.xlsx
+++ b/AAAGameData/Languages/English.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\Languages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3047AD-C7CB-4908-AAA5-0ACC4E9B270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Anonymous</d:author>
+    <author>Anonymous</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -55,12 +63,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>BRAKE</t>
   </si>
   <si>
-    <t>suspension</t>
+    <t>brake</t>
   </si>
   <si>
     <t>ENGINE</t>
@@ -75,46 +83,34 @@
     <t>obtain</t>
   </si>
   <si>
-    <t>HelloWorld!</t>
-  </si>
-  <si>
-    <t>Hello World!</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
     <t>Level.DisplayName1</t>
   </si>
   <si>
-    <t>Gate 1 Name</t>
+    <t>Level 1 Name</t>
   </si>
   <si>
     <t>Level.DisplayName2</t>
   </si>
   <si>
-    <t>Gate 2 Name</t>
+    <t>Level 2 Name</t>
   </si>
   <si>
     <t>Level.DisplayName3</t>
   </si>
   <si>
-    <t>Gate 3 Name</t>
+    <t>Level 3 Name</t>
   </si>
   <si>
     <t>Level.DisplayName4</t>
   </si>
   <si>
-    <t>Gate 4 Name</t>
+    <t>Level 4 Name</t>
   </si>
   <si>
     <t>Level.DisplayName5</t>
   </si>
   <si>
-    <t>Gate 5 Name</t>
+    <t>Level 5 Name</t>
   </si>
   <si>
     <t>MenuUIForm.Tips</t>
@@ -123,16 +119,46 @@
     <t>Click to start</t>
   </si>
   <si>
-    <t>RATE US</t>
-  </si>
-  <si>
-    <t>Comment on stars</t>
-  </si>
-  <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
-    <t>recovery</t>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>RatingDialog.CancelTxt</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>RatingDialog.Description</t>
+  </si>
+  <si>
+    <t>Have you enjoyed the our game?\n&lt;size=130%&gt;Leave 5 star ratings in the App Store!</t>
+  </si>
+  <si>
+    <t>RatingDialog.HighRatingTips</t>
+  </si>
+  <si>
+    <t>Thank you for your affirmation! We will continue to work hard!</t>
+  </si>
+  <si>
+    <t>RatingDialog.LowRatingTips</t>
+  </si>
+  <si>
+    <t>Thank you for your evaluation. We will do our best to improve and optimize it!</t>
+  </si>
+  <si>
+    <t>RatingDialog.RateTxt</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
   <si>
     <t>RETRY</t>
@@ -147,10 +173,49 @@
     <t>resurrection</t>
   </si>
   <si>
+    <t>Settings.Help</t>
+  </si>
+  <si>
+    <t>Help/Feedback</t>
+  </si>
+  <si>
+    <t>Settings.Language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Settings.Music</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>Settings.Privacy</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Settings.Rating</t>
+  </si>
+  <si>
+    <t>Settings.SFX</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>Settings.Title</t>
+  </si>
+  <si>
     <t>SETTINGS</t>
   </si>
   <si>
-    <t>set up</t>
+    <t>Settings.Vibrate</t>
+  </si>
+  <si>
+    <t>Vibration</t>
   </si>
   <si>
     <t>SHOP</t>
@@ -160,6 +225,15 @@
   </si>
   <si>
     <t>STEERING</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>TermsOfService</t>
+  </si>
+  <si>
+    <t>Service Terms</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -171,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -197,18 +271,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +343,55 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -767,2050 +898,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -2827,10 +914,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1044">
+            <xdr:cNvPr hidden="1" name="A1" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2913,10 +1000,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1045">
+            <xdr:cNvPr hidden="1" name="A2" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2999,10 +1086,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1046">
+            <xdr:cNvPr hidden="1" name="A3" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3085,10 +1172,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1047">
+            <xdr:cNvPr hidden="1" name="A4" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3171,10 +1258,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1048">
+            <xdr:cNvPr hidden="1" name="A5" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3257,10 +1344,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1049">
+            <xdr:cNvPr hidden="1" name="A6" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3343,10 +1430,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1050">
+            <xdr:cNvPr hidden="1" name="A7" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3429,10 +1516,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1051">
+            <xdr:cNvPr hidden="1" name="A8" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3515,10 +1602,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1052">
+            <xdr:cNvPr hidden="1" name="A9" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3601,10 +1688,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1053">
+            <xdr:cNvPr hidden="1" name="A10" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3687,10 +1774,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1054">
+            <xdr:cNvPr hidden="1" name="A11" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3773,10 +1860,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1055">
+            <xdr:cNvPr hidden="1" name="A12" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3859,10 +1946,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1056">
+            <xdr:cNvPr hidden="1" name="A13" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3945,10 +2032,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1057">
+            <xdr:cNvPr hidden="1" name="A14" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4031,10 +2118,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1058">
+            <xdr:cNvPr hidden="1" name="A15" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4117,10 +2204,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1059">
+            <xdr:cNvPr hidden="1" name="A16" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4203,10 +2290,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1060">
+            <xdr:cNvPr hidden="1" name="A17" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4289,10 +2376,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1061">
+            <xdr:cNvPr hidden="1" name="A18" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4375,10 +2462,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1062">
+            <xdr:cNvPr hidden="1" name="A19" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4444,20 +2531,1349 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A20" id="1075">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A21" id="1076">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A22" id="1077">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A23" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A24" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1080">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A27" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1083">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1084">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A30" id="1085">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A31" id="1086">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4556,91 +3972,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="0" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
-  <AlternateContent xmlns="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <Choice Requires="x14">
-      <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId604" name="A1">
+            <control shapeId="1056" r:id="rId120" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4662,7 +4189,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId605" name="A2">
+            <control shapeId="1057" r:id="rId121" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4684,7 +4211,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId606" name="A3">
+            <control shapeId="1058" r:id="rId122" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4706,7 +4233,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId607" name="A4">
+            <control shapeId="1059" r:id="rId123" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4728,7 +4255,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId608" name="A5">
+            <control shapeId="1060" r:id="rId124" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4750,7 +4277,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId609" name="A6">
+            <control shapeId="1061" r:id="rId125" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4772,7 +4299,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId610" name="A7">
+            <control shapeId="1062" r:id="rId126" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4794,7 +4321,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId611" name="A8">
+            <control shapeId="1063" r:id="rId127" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4816,7 +4343,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId612" name="A9">
+            <control shapeId="1064" r:id="rId128" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4838,7 +4365,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId613" name="A10">
+            <control shapeId="1065" r:id="rId129" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4860,7 +4387,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId614" name="A11">
+            <control shapeId="1066" r:id="rId130" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4882,7 +4409,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId615" name="A12">
+            <control shapeId="1067" r:id="rId131" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4904,7 +4431,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId616" name="A13">
+            <control shapeId="1068" r:id="rId132" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4926,7 +4453,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId617" name="A14">
+            <control shapeId="1069" r:id="rId133" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4948,7 +4475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId618" name="A15">
+            <control shapeId="1070" r:id="rId134" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4970,7 +4497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId619" name="A16">
+            <control shapeId="1071" r:id="rId135" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4992,7 +4519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId620" name="A17">
+            <control shapeId="1072" r:id="rId136" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5014,7 +4541,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId621" name="A18">
+            <control shapeId="1073" r:id="rId137" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5036,7 +4563,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId622" name="A19">
+            <control shapeId="1074" r:id="rId138" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5049,6 +4576,270 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId139" name="A20">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId140" name="A21">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId141" name="A22">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId142" name="A23">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId143" name="A24">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId144" name="A25">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId145" name="A26">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId146" name="A27">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId147" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId148" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId149" name="A30">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId150" name="A31">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5057,7 +4848,7 @@
           </mc:Choice>
         </mc:AlternateContent>
       </controls>
-    </Choice>
-  </AlternateContent>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/AAAGameData/Languages/English.xlsx
+++ b/AAAGameData/Languages/English.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>BRAKE</t>
   </si>
@@ -77,10 +77,13 @@
     <t>engine</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>obtain</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -161,18 +164,6 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>RETRY</t>
-  </si>
-  <si>
-    <t>retry</t>
-  </si>
-  <si>
-    <t>REVIVE</t>
-  </si>
-  <si>
-    <t>resurrection</t>
-  </si>
-  <si>
     <t>Settings.Help</t>
   </si>
   <si>
@@ -240,6 +231,9 @@
   </si>
   <si>
     <t>Unlock</t>
+  </si>
+  <si>
+    <t>Victory</t>
   </si>
 </sst>
 </file>
@@ -421,6 +415,130 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
     <mc:Fallback/>
@@ -3909,67 +4027,67 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>20</v>
@@ -3990,169 +4108,169 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4167,7 +4285,7 @@
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId120" name="A1">
+            <control shapeId="1056" r:id="rId150" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4189,7 +4307,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId121" name="A2">
+            <control shapeId="1057" r:id="rId151" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4211,7 +4329,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId122" name="A3">
+            <control shapeId="1058" r:id="rId152" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4233,7 +4351,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId123" name="A4">
+            <control shapeId="1059" r:id="rId153" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4255,7 +4373,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId124" name="A5">
+            <control shapeId="1060" r:id="rId154" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4277,7 +4395,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId125" name="A6">
+            <control shapeId="1061" r:id="rId155" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4299,7 +4417,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId126" name="A7">
+            <control shapeId="1062" r:id="rId156" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4321,7 +4439,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId127" name="A8">
+            <control shapeId="1063" r:id="rId157" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4343,7 +4461,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId128" name="A9">
+            <control shapeId="1064" r:id="rId158" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4365,7 +4483,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId129" name="A10">
+            <control shapeId="1065" r:id="rId159" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4387,7 +4505,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId130" name="A11">
+            <control shapeId="1066" r:id="rId160" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4409,7 +4527,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId131" name="A12">
+            <control shapeId="1067" r:id="rId161" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4431,7 +4549,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId132" name="A13">
+            <control shapeId="1068" r:id="rId162" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4453,7 +4571,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId133" name="A14">
+            <control shapeId="1069" r:id="rId163" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4475,7 +4593,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId134" name="A15">
+            <control shapeId="1070" r:id="rId164" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4497,7 +4615,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId135" name="A16">
+            <control shapeId="1071" r:id="rId165" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4519,7 +4637,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId136" name="A17">
+            <control shapeId="1072" r:id="rId166" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4541,7 +4659,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId137" name="A18">
+            <control shapeId="1073" r:id="rId167" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4563,7 +4681,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId138" name="A19">
+            <control shapeId="1074" r:id="rId168" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4585,7 +4703,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId139" name="A20">
+            <control shapeId="1075" r:id="rId169" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4607,7 +4725,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId140" name="A21">
+            <control shapeId="1076" r:id="rId170" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4629,7 +4747,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId141" name="A22">
+            <control shapeId="1077" r:id="rId171" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4651,7 +4769,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId142" name="A23">
+            <control shapeId="1078" r:id="rId172" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4673,7 +4791,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId143" name="A24">
+            <control shapeId="1079" r:id="rId173" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4695,7 +4813,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId144" name="A25">
+            <control shapeId="1080" r:id="rId174" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4717,7 +4835,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId145" name="A26">
+            <control shapeId="1081" r:id="rId175" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4739,7 +4857,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId146" name="A27">
+            <control shapeId="1082" r:id="rId176" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4761,7 +4879,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId147" name="A28">
+            <control shapeId="1083" r:id="rId177" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4783,7 +4901,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId148" name="A29">
+            <control shapeId="1084" r:id="rId178" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4805,7 +4923,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId149" name="A30">
+            <control shapeId="1085" r:id="rId179" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4827,7 +4945,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId150" name="A31">
+            <control shapeId="1086" r:id="rId180" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
